--- a/Code/Results/Cases/Case_5_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24047830529776</v>
+        <v>20.41270024389399</v>
       </c>
       <c r="C2">
-        <v>23.56506219115754</v>
+        <v>17.26868271090615</v>
       </c>
       <c r="D2">
-        <v>4.091888250279879</v>
+        <v>6.953944436805044</v>
       </c>
       <c r="E2">
-        <v>9.424644006935443</v>
+        <v>12.71111770342536</v>
       </c>
       <c r="F2">
-        <v>39.23215410921946</v>
+        <v>43.92638751237448</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>20.88031134552078</v>
+        <v>27.5058778154737</v>
       </c>
       <c r="J2">
-        <v>6.70521256075655</v>
+        <v>10.28437714029083</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.78923919808883</v>
+        <v>18.53984072357984</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.36364389131628</v>
+        <v>19.90059342218844</v>
       </c>
       <c r="C3">
-        <v>21.87344861916597</v>
+        <v>16.76006302165466</v>
       </c>
       <c r="D3">
-        <v>3.970634948408793</v>
+        <v>6.94784728612303</v>
       </c>
       <c r="E3">
-        <v>9.052797271983803</v>
+        <v>12.68434590529637</v>
       </c>
       <c r="F3">
-        <v>37.48142258864478</v>
+        <v>43.72777172053112</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>20.38490530517025</v>
+        <v>27.52309948137522</v>
       </c>
       <c r="J3">
-        <v>6.569250552134995</v>
+        <v>10.29380399114021</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.0954359097907</v>
+        <v>18.61783209767465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.15512232099218</v>
+        <v>19.5854085791532</v>
       </c>
       <c r="C4">
-        <v>20.82474264519529</v>
+        <v>16.44545893365876</v>
       </c>
       <c r="D4">
-        <v>3.895613214631626</v>
+        <v>6.944803949421152</v>
       </c>
       <c r="E4">
-        <v>8.824810009234726</v>
+        <v>12.6705795576984</v>
       </c>
       <c r="F4">
-        <v>36.41899875152384</v>
+        <v>43.61938210404897</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>20.10422146113339</v>
+        <v>27.54139620639288</v>
       </c>
       <c r="J4">
-        <v>6.490170783194263</v>
+        <v>10.30152207838112</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.28550834600382</v>
+        <v>18.66772759342791</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.64832104585265</v>
+        <v>19.45698718252576</v>
       </c>
       <c r="C5">
-        <v>20.38962501065165</v>
+        <v>16.31689344150379</v>
       </c>
       <c r="D5">
-        <v>3.864930847273786</v>
+        <v>6.943741062017095</v>
       </c>
       <c r="E5">
-        <v>8.732068797145679</v>
+        <v>12.66564429437032</v>
       </c>
       <c r="F5">
-        <v>35.98948103316874</v>
+        <v>43.57864446926092</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>19.99554269890761</v>
+        <v>27.55078441393816</v>
       </c>
       <c r="J5">
-        <v>6.459029582813322</v>
+        <v>10.30515175345569</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.36355873452306</v>
+        <v>18.68856731357358</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.56329697108573</v>
+        <v>19.43567025350202</v>
       </c>
       <c r="C6">
-        <v>20.31675471574616</v>
+        <v>16.29553001385224</v>
       </c>
       <c r="D6">
-        <v>3.859830437295862</v>
+        <v>6.943575312388017</v>
       </c>
       <c r="E6">
-        <v>8.716681904226327</v>
+        <v>12.66486561524079</v>
       </c>
       <c r="F6">
-        <v>35.91837658405792</v>
+        <v>43.57208783411529</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>19.97783492086481</v>
+        <v>27.55245970965654</v>
       </c>
       <c r="J6">
-        <v>6.453923471646456</v>
+        <v>10.30578369402346</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.37655692265198</v>
+        <v>18.69205840309167</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.14834564261527</v>
+        <v>19.58367628724852</v>
       </c>
       <c r="C7">
-        <v>20.81891603087221</v>
+        <v>16.4437262213625</v>
       </c>
       <c r="D7">
-        <v>3.895199821888438</v>
+        <v>6.944788895539627</v>
       </c>
       <c r="E7">
-        <v>8.823558477937494</v>
+        <v>12.67051026412818</v>
       </c>
       <c r="F7">
-        <v>36.41319182054824</v>
+        <v>43.61881878141001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>20.10273297014585</v>
+        <v>27.54151500977559</v>
       </c>
       <c r="J7">
-        <v>6.489746439986104</v>
+        <v>10.30156906894216</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.28655845946217</v>
+        <v>18.66800659039925</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.60486462808282</v>
+        <v>20.23640336403734</v>
       </c>
       <c r="C8">
-        <v>22.99130439962408</v>
+        <v>17.09391766427245</v>
       </c>
       <c r="D8">
-        <v>4.050217657434367</v>
+        <v>6.951697513356546</v>
       </c>
       <c r="E8">
-        <v>9.296407761285842</v>
+        <v>12.70133415287311</v>
       </c>
       <c r="F8">
-        <v>38.62604109824647</v>
+        <v>43.85510493491164</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>20.70449521452541</v>
+        <v>27.51020747147289</v>
       </c>
       <c r="J8">
-        <v>6.657405415553305</v>
+        <v>10.28722650177254</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.89443364213378</v>
+        <v>18.56631641237104</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.98763658582979</v>
+        <v>21.50176199423407</v>
       </c>
       <c r="C9">
-        <v>26.96493837078924</v>
+        <v>18.34163096372701</v>
       </c>
       <c r="D9">
-        <v>4.348409889061008</v>
+        <v>6.970748427323466</v>
       </c>
       <c r="E9">
-        <v>10.2235820511085</v>
+        <v>12.78282992754745</v>
       </c>
       <c r="F9">
-        <v>43.05773563295546</v>
+        <v>44.42484994014125</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>22.08031591370586</v>
+        <v>27.51047921114985</v>
       </c>
       <c r="J9">
-        <v>7.022251613110991</v>
+        <v>10.27444637018347</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.13819421911059</v>
+        <v>18.38275217405637</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96090559126592</v>
+        <v>22.41155779875934</v>
       </c>
       <c r="C10">
-        <v>29.68328448132139</v>
+        <v>19.23062506491059</v>
       </c>
       <c r="D10">
-        <v>4.562605363234801</v>
+        <v>6.988025867661277</v>
       </c>
       <c r="E10">
-        <v>10.90275343182771</v>
+        <v>12.85530515753779</v>
       </c>
       <c r="F10">
-        <v>46.36942853067188</v>
+        <v>44.90632413087205</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>23.22428410224853</v>
+        <v>27.54873848264491</v>
       </c>
       <c r="J10">
-        <v>7.314254494608664</v>
+        <v>10.27444983223694</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.5847109561385</v>
+        <v>18.25742626349261</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.26482880833927</v>
+        <v>22.81904576916434</v>
       </c>
       <c r="C11">
-        <v>30.88118400862291</v>
+        <v>19.62699384937129</v>
       </c>
       <c r="D11">
-        <v>4.658807408008631</v>
+        <v>6.996581307704076</v>
       </c>
       <c r="E11">
-        <v>11.21138672290831</v>
+        <v>12.89095088549031</v>
       </c>
       <c r="F11">
-        <v>47.89094689899667</v>
+        <v>45.1384895657656</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>23.77715266738025</v>
+        <v>27.57448338579875</v>
       </c>
       <c r="J11">
-        <v>7.452880754115437</v>
+        <v>10.27649630325415</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.33198341191262</v>
+        <v>18.20245691061822</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.75207971030799</v>
+        <v>22.97227563811044</v>
       </c>
       <c r="C12">
-        <v>31.32973301028128</v>
+        <v>19.77578244515145</v>
       </c>
       <c r="D12">
-        <v>4.695051525751996</v>
+        <v>6.999919545511658</v>
       </c>
       <c r="E12">
-        <v>11.32825769590985</v>
+        <v>12.90482775805093</v>
       </c>
       <c r="F12">
-        <v>48.46972450148967</v>
+        <v>45.22824295537393</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>23.99153394359669</v>
+        <v>27.58543571784476</v>
       </c>
       <c r="J12">
-        <v>7.506271897472</v>
+        <v>10.27756543703243</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.23601762089037</v>
+        <v>18.18193310800984</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.64742293619528</v>
+        <v>22.93932514299526</v>
       </c>
       <c r="C13">
-        <v>31.23334663222169</v>
+        <v>19.7437985761046</v>
       </c>
       <c r="D13">
-        <v>4.687254009095234</v>
+        <v>6.999196242228797</v>
       </c>
       <c r="E13">
-        <v>11.30308644613179</v>
+        <v>12.90182239162301</v>
       </c>
       <c r="F13">
-        <v>48.34494888653819</v>
+        <v>45.20883211338917</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>23.94513338193362</v>
+        <v>27.58302337128523</v>
       </c>
       <c r="J13">
-        <v>7.494732108610064</v>
+        <v>10.27732209588494</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.25669944032843</v>
+        <v>18.18634032150382</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.30504283637551</v>
+        <v>22.83167453372325</v>
       </c>
       <c r="C14">
-        <v>30.91818486935703</v>
+        <v>19.63926180056914</v>
       </c>
       <c r="D14">
-        <v>4.661792971912987</v>
+        <v>6.996853982151721</v>
       </c>
       <c r="E14">
-        <v>11.22100142737877</v>
+        <v>12.89208499392515</v>
       </c>
       <c r="F14">
-        <v>47.93850763638214</v>
+        <v>45.14583712083372</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>23.79468702945207</v>
+        <v>27.57536030696729</v>
       </c>
       <c r="J14">
-        <v>7.457254889979797</v>
+        <v>10.27657836557024</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.32409429885362</v>
+        <v>18.20076256490908</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.09449191427925</v>
+        <v>22.7655906645704</v>
       </c>
       <c r="C15">
-        <v>30.72449510790542</v>
+        <v>19.57505546142169</v>
       </c>
       <c r="D15">
-        <v>4.646173076241692</v>
+        <v>6.995432057065141</v>
       </c>
       <c r="E15">
-        <v>11.17072365426143</v>
+        <v>12.88616966825974</v>
       </c>
       <c r="F15">
-        <v>47.68990756772527</v>
+        <v>45.10748853077071</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>23.70319993722516</v>
+        <v>27.57082325818227</v>
       </c>
       <c r="J15">
-        <v>7.43441790217977</v>
+        <v>10.27616112121837</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.36533731437971</v>
+        <v>18.20963456760095</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.87475164066184</v>
+        <v>22.38478517165733</v>
       </c>
       <c r="C16">
-        <v>29.60426071588305</v>
+        <v>19.2045463652182</v>
       </c>
       <c r="D16">
-        <v>4.556292645804681</v>
+        <v>6.987480617656491</v>
       </c>
       <c r="E16">
-        <v>10.8825800836985</v>
+        <v>12.85302895870345</v>
       </c>
       <c r="F16">
-        <v>46.27033009729294</v>
+        <v>44.89141162515047</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>23.18883488879808</v>
+        <v>27.54722419169356</v>
       </c>
       <c r="J16">
-        <v>7.305316574410995</v>
+        <v>10.27435725342393</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.60119764974844</v>
+        <v>18.2610595816475</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11434144514111</v>
+        <v>22.14942132504147</v>
       </c>
       <c r="C17">
-        <v>28.90744941140467</v>
+        <v>18.97507943351218</v>
       </c>
       <c r="D17">
-        <v>4.500829707511389</v>
+        <v>6.982779781204836</v>
       </c>
       <c r="E17">
-        <v>10.70575193952713</v>
+        <v>12.83337941316709</v>
       </c>
       <c r="F17">
-        <v>45.40357208671034</v>
+        <v>44.76218521014317</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>22.88183607050241</v>
+        <v>27.53488635312799</v>
       </c>
       <c r="J17">
-        <v>7.22764110856345</v>
+        <v>10.27377452511745</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.74556124564654</v>
+        <v>18.29312893217548</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67236362941173</v>
+        <v>22.01345421336623</v>
       </c>
       <c r="C18">
-        <v>28.50298609231649</v>
+        <v>18.84234756145426</v>
       </c>
       <c r="D18">
-        <v>4.468812580600207</v>
+        <v>6.980141579060541</v>
       </c>
       <c r="E18">
-        <v>10.60400987856593</v>
+        <v>12.82232983657543</v>
       </c>
       <c r="F18">
-        <v>44.90641061610268</v>
+        <v>44.68909783332883</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>22.70829039461092</v>
+        <v>27.52857485462494</v>
       </c>
       <c r="J18">
-        <v>7.18350485781646</v>
+        <v>10.27363183290493</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.82851471888277</v>
+        <v>18.31176668390267</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.52191240848463</v>
+        <v>21.96732145644083</v>
       </c>
       <c r="C19">
-        <v>28.36539671806187</v>
+        <v>18.79728312698255</v>
       </c>
       <c r="D19">
-        <v>4.457952494010551</v>
+        <v>6.979259642412799</v>
       </c>
       <c r="E19">
-        <v>10.56955487508085</v>
+        <v>12.81863215818513</v>
       </c>
       <c r="F19">
-        <v>44.73830575211204</v>
+        <v>44.66456623745193</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>22.65004185734712</v>
+        <v>27.5265725560167</v>
       </c>
       <c r="J19">
-        <v>7.168652249424476</v>
+        <v>10.27361657158666</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.85659117993157</v>
+        <v>18.31811018895236</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19576230257113</v>
+        <v>22.17453867652</v>
       </c>
       <c r="C20">
-        <v>28.98200329244826</v>
+        <v>18.99958519880242</v>
       </c>
       <c r="D20">
-        <v>4.506745946083337</v>
+        <v>6.983273415765604</v>
       </c>
       <c r="E20">
-        <v>10.72457901669418</v>
+        <v>12.83544507004975</v>
       </c>
       <c r="F20">
-        <v>45.49569500778989</v>
+        <v>44.77581358758945</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>22.9142004835767</v>
+        <v>27.53611847040658</v>
       </c>
       <c r="J20">
-        <v>7.235853432165635</v>
+        <v>10.27381663542519</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.73020272686758</v>
+        <v>18.2896952044285</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.40578085584156</v>
+        <v>22.86332456185387</v>
       </c>
       <c r="C21">
-        <v>31.01088873929313</v>
+        <v>19.67000341083666</v>
       </c>
       <c r="D21">
-        <v>4.669276559032342</v>
+        <v>6.997539300935979</v>
       </c>
       <c r="E21">
-        <v>11.24511131127767</v>
+        <v>12.89493488074392</v>
       </c>
       <c r="F21">
-        <v>48.05781380654584</v>
+        <v>45.16429084743028</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>23.8387373205446</v>
+        <v>27.57757845263361</v>
       </c>
       <c r="J21">
-        <v>7.468237944347016</v>
+        <v>10.27678883301286</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.30430701727962</v>
+        <v>18.19651849422862</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.81245050331764</v>
+        <v>23.30714356487744</v>
       </c>
       <c r="C22">
-        <v>32.30762779339137</v>
+        <v>20.10047833547329</v>
       </c>
       <c r="D22">
-        <v>4.774419687427852</v>
+        <v>7.007436115206691</v>
       </c>
       <c r="E22">
-        <v>11.58534448873918</v>
+        <v>12.93601847040728</v>
       </c>
       <c r="F22">
-        <v>49.74788762926131</v>
+        <v>45.42886583607406</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>24.47246515371112</v>
+        <v>27.61168959050491</v>
       </c>
       <c r="J22">
-        <v>7.62538132889533</v>
+        <v>10.28044598763717</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.02435675226068</v>
+        <v>18.13732273180366</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.06495667888982</v>
+        <v>23.07089865601851</v>
       </c>
       <c r="C23">
-        <v>31.61802407667733</v>
+        <v>19.87147501088029</v>
       </c>
       <c r="D23">
-        <v>4.718402440681603</v>
+        <v>7.002102085688088</v>
       </c>
       <c r="E23">
-        <v>11.40372869701141</v>
+        <v>12.91389195877141</v>
       </c>
       <c r="F23">
-        <v>48.84423482395905</v>
+        <v>45.2866980005666</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>24.13139875196933</v>
+        <v>27.59284102768794</v>
       </c>
       <c r="J23">
-        <v>7.54100368923853</v>
+        <v>10.27833720346477</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.17396336350735</v>
+        <v>18.16876159255137</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.15896694332949</v>
+        <v>22.16318514459021</v>
       </c>
       <c r="C24">
-        <v>28.94830953329188</v>
+        <v>18.98850864825006</v>
       </c>
       <c r="D24">
-        <v>4.504071621183054</v>
+        <v>6.983050042958884</v>
       </c>
       <c r="E24">
-        <v>10.71606755096777</v>
+        <v>12.83451041610467</v>
       </c>
       <c r="F24">
-        <v>45.45404268703908</v>
+        <v>44.76964843591502</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>22.89955936319488</v>
+        <v>27.53555899571116</v>
       </c>
       <c r="J24">
-        <v>7.232139024260688</v>
+        <v>10.27379699831368</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.73714643795897</v>
+        <v>18.2912469676159</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.8467860638381</v>
+        <v>21.16218809327524</v>
       </c>
       <c r="C25">
-        <v>25.92672670851142</v>
+        <v>18.00821276725975</v>
       </c>
       <c r="D25">
-        <v>4.268519519965384</v>
+        <v>6.965012919905337</v>
       </c>
       <c r="E25">
-        <v>9.973055856846102</v>
+        <v>12.75855131019764</v>
       </c>
       <c r="F25">
-        <v>41.84949983023686</v>
+        <v>44.25951293928659</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>21.68580541775007</v>
+        <v>27.50375114788037</v>
       </c>
       <c r="J25">
-        <v>6.919509988316667</v>
+        <v>10.27625639133188</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.34196553385861</v>
+        <v>18.43072715036169</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_79/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_79/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.41270024389399</v>
+        <v>26.24047830529782</v>
       </c>
       <c r="C2">
-        <v>17.26868271090615</v>
+        <v>23.56506219115758</v>
       </c>
       <c r="D2">
-        <v>6.953944436805044</v>
+        <v>4.09188825027997</v>
       </c>
       <c r="E2">
-        <v>12.71111770342536</v>
+        <v>9.424644006935475</v>
       </c>
       <c r="F2">
-        <v>43.92638751237448</v>
+        <v>39.23215410921946</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>27.5058778154737</v>
+        <v>20.88031134552075</v>
       </c>
       <c r="J2">
-        <v>10.28437714029083</v>
+        <v>6.705212560756545</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.53984072357984</v>
+        <v>11.7892391980888</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90059342218844</v>
+        <v>24.36364389131629</v>
       </c>
       <c r="C3">
-        <v>16.76006302165466</v>
+        <v>21.8734486191659</v>
       </c>
       <c r="D3">
-        <v>6.94784728612303</v>
+        <v>3.970634948408609</v>
       </c>
       <c r="E3">
-        <v>12.68434590529637</v>
+        <v>9.052797271983746</v>
       </c>
       <c r="F3">
-        <v>43.72777172053112</v>
+        <v>37.4814225886447</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>27.52309948137522</v>
+        <v>20.38490530517021</v>
       </c>
       <c r="J3">
-        <v>10.29380399114021</v>
+        <v>6.569250552134995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.61783209767465</v>
+        <v>12.09543590979066</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.5854085791532</v>
+        <v>23.15512232099217</v>
       </c>
       <c r="C4">
-        <v>16.44545893365876</v>
+        <v>20.82474264519528</v>
       </c>
       <c r="D4">
-        <v>6.944803949421152</v>
+        <v>3.895613214631581</v>
       </c>
       <c r="E4">
-        <v>12.6705795576984</v>
+        <v>8.824810009234763</v>
       </c>
       <c r="F4">
-        <v>43.61938210404897</v>
+        <v>36.41899875152384</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>27.54139620639288</v>
+        <v>20.10422146113336</v>
       </c>
       <c r="J4">
-        <v>10.30152207838112</v>
+        <v>6.490170783194291</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.66772759342791</v>
+        <v>12.28550834600372</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.45698718252576</v>
+        <v>22.64832104585274</v>
       </c>
       <c r="C5">
-        <v>16.31689344150379</v>
+        <v>20.3896250106517</v>
       </c>
       <c r="D5">
-        <v>6.943741062017095</v>
+        <v>3.864930847273793</v>
       </c>
       <c r="E5">
-        <v>12.66564429437032</v>
+        <v>8.732068797145716</v>
       </c>
       <c r="F5">
-        <v>43.57864446926092</v>
+        <v>35.98948103316859</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>27.55078441393816</v>
+        <v>19.99554269890747</v>
       </c>
       <c r="J5">
-        <v>10.30515175345569</v>
+        <v>6.459029582813275</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.68856731357358</v>
+        <v>12.36355873452296</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.43567025350202</v>
+        <v>22.56329697108575</v>
       </c>
       <c r="C6">
-        <v>16.29553001385224</v>
+        <v>20.31675471574619</v>
       </c>
       <c r="D6">
-        <v>6.943575312388017</v>
+        <v>3.859830437295734</v>
       </c>
       <c r="E6">
-        <v>12.66486561524079</v>
+        <v>8.71668190422627</v>
       </c>
       <c r="F6">
-        <v>43.57208783411529</v>
+        <v>35.91837658405783</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>27.55245970965654</v>
+        <v>19.97783492086477</v>
       </c>
       <c r="J6">
-        <v>10.30578369402346</v>
+        <v>6.453923471646434</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.69205840309167</v>
+        <v>12.37655692265195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.58367628724852</v>
+        <v>23.14834564261533</v>
       </c>
       <c r="C7">
-        <v>16.4437262213625</v>
+        <v>20.81891603087225</v>
       </c>
       <c r="D7">
-        <v>6.944788895539627</v>
+        <v>3.895199821888511</v>
       </c>
       <c r="E7">
-        <v>12.67051026412818</v>
+        <v>8.823558477937466</v>
       </c>
       <c r="F7">
-        <v>43.61881878141001</v>
+        <v>36.41319182054813</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>27.54151500977559</v>
+        <v>20.10273297014576</v>
       </c>
       <c r="J7">
-        <v>10.30156906894216</v>
+        <v>6.489746439986101</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.66800659039925</v>
+        <v>12.28655845946207</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23640336403734</v>
+        <v>25.60486462808286</v>
       </c>
       <c r="C8">
-        <v>17.09391766427245</v>
+        <v>22.99130439962412</v>
       </c>
       <c r="D8">
-        <v>6.951697513356546</v>
+        <v>4.050217657434282</v>
       </c>
       <c r="E8">
-        <v>12.70133415287311</v>
+        <v>9.296407761285849</v>
       </c>
       <c r="F8">
-        <v>43.85510493491164</v>
+        <v>38.62604109824643</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>27.51020747147289</v>
+        <v>20.70449521452542</v>
       </c>
       <c r="J8">
-        <v>10.28722650177254</v>
+        <v>6.657405415553304</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.56631641237104</v>
+        <v>11.89443364213385</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.50176199423407</v>
+        <v>29.98763658582995</v>
       </c>
       <c r="C9">
-        <v>18.34163096372701</v>
+        <v>26.96493837078943</v>
       </c>
       <c r="D9">
-        <v>6.970748427323466</v>
+        <v>4.348409889060843</v>
       </c>
       <c r="E9">
-        <v>12.78282992754745</v>
+        <v>10.22358205110849</v>
       </c>
       <c r="F9">
-        <v>44.42484994014125</v>
+        <v>43.05773563295552</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>27.51047921114985</v>
+        <v>22.08031591370583</v>
       </c>
       <c r="J9">
-        <v>10.27444637018347</v>
+        <v>7.022251613111001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.38275217405637</v>
+        <v>11.13819421911041</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.41155779875934</v>
+        <v>32.960905591266</v>
       </c>
       <c r="C10">
-        <v>19.23062506491059</v>
+        <v>29.68328448132151</v>
       </c>
       <c r="D10">
-        <v>6.988025867661277</v>
+        <v>4.562605363234706</v>
       </c>
       <c r="E10">
-        <v>12.85530515753779</v>
+        <v>10.90275343182772</v>
       </c>
       <c r="F10">
-        <v>44.90632413087205</v>
+        <v>46.36942853067202</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>27.54873848264491</v>
+        <v>23.22428410224861</v>
       </c>
       <c r="J10">
-        <v>10.27444983223694</v>
+        <v>7.314254494608685</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.25742626349261</v>
+        <v>10.58471095613848</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.81904576916434</v>
+        <v>34.26482880833946</v>
       </c>
       <c r="C11">
-        <v>19.62699384937129</v>
+        <v>30.88118400862326</v>
       </c>
       <c r="D11">
-        <v>6.996581307704076</v>
+        <v>4.658807408008649</v>
       </c>
       <c r="E11">
-        <v>12.89095088549031</v>
+        <v>11.21138672290831</v>
       </c>
       <c r="F11">
-        <v>45.1384895657656</v>
+        <v>47.89094689899679</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>27.57448338579875</v>
+        <v>23.77715266738027</v>
       </c>
       <c r="J11">
-        <v>10.27649630325415</v>
+        <v>7.452880754115452</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.20245691061822</v>
+        <v>10.3319834119125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.97227563811044</v>
+        <v>34.75207971030813</v>
       </c>
       <c r="C12">
-        <v>19.77578244515145</v>
+        <v>31.32973301028145</v>
       </c>
       <c r="D12">
-        <v>6.999919545511658</v>
+        <v>4.695051525751996</v>
       </c>
       <c r="E12">
-        <v>12.90482775805093</v>
+        <v>11.3282576959099</v>
       </c>
       <c r="F12">
-        <v>45.22824295537393</v>
+        <v>48.4697245014898</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>27.58543571784476</v>
+        <v>23.99153394359674</v>
       </c>
       <c r="J12">
-        <v>10.27756543703243</v>
+        <v>7.506271897472019</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.18193310800984</v>
+        <v>10.23601762089028</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.93932514299526</v>
+        <v>34.64742293619528</v>
       </c>
       <c r="C13">
-        <v>19.7437985761046</v>
+        <v>31.23334663222169</v>
       </c>
       <c r="D13">
-        <v>6.999196242228797</v>
+        <v>4.687254009095245</v>
       </c>
       <c r="E13">
-        <v>12.90182239162301</v>
+        <v>11.3030864461318</v>
       </c>
       <c r="F13">
-        <v>45.20883211338917</v>
+        <v>48.34494888653825</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>27.58302337128523</v>
+        <v>23.94513338193364</v>
       </c>
       <c r="J13">
-        <v>10.27732209588494</v>
+        <v>7.494732108610062</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.18634032150382</v>
+        <v>10.25669944032843</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.83167453372325</v>
+        <v>34.30504283637556</v>
       </c>
       <c r="C14">
-        <v>19.63926180056914</v>
+        <v>30.91818486935706</v>
       </c>
       <c r="D14">
-        <v>6.996853982151721</v>
+        <v>4.661792971913008</v>
       </c>
       <c r="E14">
-        <v>12.89208499392515</v>
+        <v>11.22100142737879</v>
       </c>
       <c r="F14">
-        <v>45.14583712083372</v>
+        <v>47.93850763638218</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>27.57536030696729</v>
+        <v>23.7946870294521</v>
       </c>
       <c r="J14">
-        <v>10.27657836557024</v>
+        <v>7.457254889979819</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.20076256490908</v>
+        <v>10.32409429885363</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.7655906645704</v>
+        <v>34.09449191427936</v>
       </c>
       <c r="C15">
-        <v>19.57505546142169</v>
+        <v>30.72449510790541</v>
       </c>
       <c r="D15">
-        <v>6.995432057065141</v>
+        <v>4.646173076241754</v>
       </c>
       <c r="E15">
-        <v>12.88616966825974</v>
+        <v>11.17072365426147</v>
       </c>
       <c r="F15">
-        <v>45.10748853077071</v>
+        <v>47.68990756772534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>27.57082325818227</v>
+        <v>23.70319993722517</v>
       </c>
       <c r="J15">
-        <v>10.27616112121837</v>
+        <v>7.434417902179782</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.20963456760095</v>
+        <v>10.36533731437965</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.38478517165733</v>
+        <v>32.87475164066184</v>
       </c>
       <c r="C16">
-        <v>19.2045463652182</v>
+        <v>29.60426071588301</v>
       </c>
       <c r="D16">
-        <v>6.987480617656491</v>
+        <v>4.55629264580462</v>
       </c>
       <c r="E16">
-        <v>12.85302895870345</v>
+        <v>10.88258008369847</v>
       </c>
       <c r="F16">
-        <v>44.89141162515047</v>
+        <v>46.27033009729302</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>27.54722419169356</v>
+        <v>23.18883488879817</v>
       </c>
       <c r="J16">
-        <v>10.27435725342393</v>
+        <v>7.305316574410986</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.2610595816475</v>
+        <v>10.60119764974855</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14942132504147</v>
+        <v>32.11434144514129</v>
       </c>
       <c r="C17">
-        <v>18.97507943351218</v>
+        <v>28.90744941140485</v>
       </c>
       <c r="D17">
-        <v>6.982779781204836</v>
+        <v>4.500829707511354</v>
       </c>
       <c r="E17">
-        <v>12.83337941316709</v>
+        <v>10.70575193952714</v>
       </c>
       <c r="F17">
-        <v>44.76218521014317</v>
+        <v>45.40357208671038</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>27.53488635312799</v>
+        <v>22.8818360705024</v>
       </c>
       <c r="J17">
-        <v>10.27377452511745</v>
+        <v>7.22764110856347</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.29312893217548</v>
+        <v>10.74556124564649</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.01345421336623</v>
+        <v>31.67236362941188</v>
       </c>
       <c r="C18">
-        <v>18.84234756145426</v>
+        <v>28.50298609231662</v>
       </c>
       <c r="D18">
-        <v>6.980141579060541</v>
+        <v>4.468812580600193</v>
       </c>
       <c r="E18">
-        <v>12.82232983657543</v>
+        <v>10.60400987856593</v>
       </c>
       <c r="F18">
-        <v>44.68909783332883</v>
+        <v>44.90641061610277</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>27.52857485462494</v>
+        <v>22.70829039461096</v>
       </c>
       <c r="J18">
-        <v>10.27363183290493</v>
+        <v>7.183504857816478</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.31176668390267</v>
+        <v>10.82851471888271</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.96732145644083</v>
+        <v>31.52191240848465</v>
       </c>
       <c r="C19">
-        <v>18.79728312698255</v>
+        <v>28.36539671806183</v>
       </c>
       <c r="D19">
-        <v>6.979259642412799</v>
+        <v>4.457952494010517</v>
       </c>
       <c r="E19">
-        <v>12.81863215818513</v>
+        <v>10.56955487508083</v>
       </c>
       <c r="F19">
-        <v>44.66456623745193</v>
+        <v>44.7383057521121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>27.5265725560167</v>
+        <v>22.65004185734718</v>
       </c>
       <c r="J19">
-        <v>10.27361657158666</v>
+        <v>7.168652249424473</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.31811018895236</v>
+        <v>10.85659117993161</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17453867652</v>
+        <v>32.19576230257115</v>
       </c>
       <c r="C20">
-        <v>18.99958519880242</v>
+        <v>28.98200329244833</v>
       </c>
       <c r="D20">
-        <v>6.983273415765604</v>
+        <v>4.506745946083309</v>
       </c>
       <c r="E20">
-        <v>12.83544507004975</v>
+        <v>10.72457901669416</v>
       </c>
       <c r="F20">
-        <v>44.77581358758945</v>
+        <v>45.49569500778991</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>27.53611847040658</v>
+        <v>22.9142004835767</v>
       </c>
       <c r="J20">
-        <v>10.27381663542519</v>
+        <v>7.235853432165625</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.2896952044285</v>
+        <v>10.73020272686755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.86332456185387</v>
+        <v>34.40578085584163</v>
       </c>
       <c r="C21">
-        <v>19.67000341083666</v>
+        <v>31.01088873929305</v>
       </c>
       <c r="D21">
-        <v>6.997539300935979</v>
+        <v>4.669276559032295</v>
       </c>
       <c r="E21">
-        <v>12.89493488074392</v>
+        <v>11.24511131127767</v>
       </c>
       <c r="F21">
-        <v>45.16429084743028</v>
+        <v>48.05781380654597</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>27.57757845263361</v>
+        <v>23.83873732054468</v>
       </c>
       <c r="J21">
-        <v>10.27678883301286</v>
+        <v>7.468237944347003</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.19651849422862</v>
+        <v>10.30430701727963</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30714356487744</v>
+        <v>35.81245050331761</v>
       </c>
       <c r="C22">
-        <v>20.10047833547329</v>
+        <v>32.30762779339141</v>
       </c>
       <c r="D22">
-        <v>7.007436115206691</v>
+        <v>4.774419687427808</v>
       </c>
       <c r="E22">
-        <v>12.93601847040728</v>
+        <v>11.58534448873918</v>
       </c>
       <c r="F22">
-        <v>45.42886583607406</v>
+        <v>49.7478876292613</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>27.61168959050491</v>
+        <v>24.47246515371117</v>
       </c>
       <c r="J22">
-        <v>10.28044598763717</v>
+        <v>7.62538132889535</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.13732273180366</v>
+        <v>10.02435675226075</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.07089865601851</v>
+        <v>35.06495667888988</v>
       </c>
       <c r="C23">
-        <v>19.87147501088029</v>
+        <v>31.61802407667743</v>
       </c>
       <c r="D23">
-        <v>7.002102085688088</v>
+        <v>4.718402440681698</v>
       </c>
       <c r="E23">
-        <v>12.91389195877141</v>
+        <v>11.40372869701144</v>
       </c>
       <c r="F23">
-        <v>45.2866980005666</v>
+        <v>48.8442348239591</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>27.59284102768794</v>
+        <v>24.13139875196933</v>
       </c>
       <c r="J23">
-        <v>10.27833720346477</v>
+        <v>7.541003689238535</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.16876159255137</v>
+        <v>10.17396336350736</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.16318514459021</v>
+        <v>32.15896694332944</v>
       </c>
       <c r="C24">
-        <v>18.98850864825006</v>
+        <v>28.94830953329183</v>
       </c>
       <c r="D24">
-        <v>6.983050042958884</v>
+        <v>4.504071621182947</v>
       </c>
       <c r="E24">
-        <v>12.83451041610467</v>
+        <v>10.71606755096772</v>
       </c>
       <c r="F24">
-        <v>44.76964843591502</v>
+        <v>45.45404268703907</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>27.53555899571116</v>
+        <v>22.89955936319494</v>
       </c>
       <c r="J24">
-        <v>10.27379699831368</v>
+        <v>7.232139024260709</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.2912469676159</v>
+        <v>10.73714643795907</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.16218809327524</v>
+        <v>28.84678606383807</v>
       </c>
       <c r="C25">
-        <v>18.00821276725975</v>
+        <v>25.92672670851141</v>
       </c>
       <c r="D25">
-        <v>6.965012919905337</v>
+        <v>4.268519519965324</v>
       </c>
       <c r="E25">
-        <v>12.75855131019764</v>
+        <v>9.973055856846051</v>
       </c>
       <c r="F25">
-        <v>44.25951293928659</v>
+        <v>41.84949983023696</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>27.50375114788037</v>
+        <v>21.68580541775014</v>
       </c>
       <c r="J25">
-        <v>10.27625639133188</v>
+        <v>6.919509988316627</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.43072715036169</v>
+        <v>11.34196553385855</v>
       </c>
       <c r="O25">
         <v>0</v>
